--- a/analises/2023/analise_descritiva/dados/sub-uf.xlsx
+++ b/analises/2023/analise_descritiva/dados/sub-uf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -505,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,11 +539,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -574,13 +598,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -612,25 +654,43 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -662,25 +722,43 @@
       <c r="L3" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="P3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+      <c r="U3">
         <v>2023</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -712,25 +790,43 @@
       <c r="L4" s="3">
         <v>70.01644246718027</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4">
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="O4" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>2017</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>25</v>
@@ -760,27 +856,45 @@
         <v>127.073389822705</v>
       </c>
       <c r="L5" s="3">
-        <v>32.67652759350349</v>
-      </c>
-      <c r="M5" s="1">
+        <v>36.28928912262683</v>
+      </c>
+      <c r="M5" s="3">
+        <v>14.15886907659957</v>
+      </c>
+      <c r="N5" s="3">
+        <v>25.41467796454099</v>
+      </c>
+      <c r="O5" s="3">
+        <v>55.2973721582137</v>
+      </c>
+      <c r="P5" s="1">
         <v>12</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>1.414213562373095</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5</v>
+      </c>
+      <c r="U5">
         <v>2019</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>26</v>
@@ -810,27 +924,45 @@
         <v>252.2313949797012</v>
       </c>
       <c r="L6" s="3">
-        <v>25.66482271243108</v>
-      </c>
-      <c r="M6" s="1">
+        <v>26.91271061225485</v>
+      </c>
+      <c r="M6" s="3">
+        <v>28.51756731053863</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3.157906372891594</v>
+      </c>
+      <c r="O6" s="3">
+        <v>84.0771316599004</v>
+      </c>
+      <c r="P6" s="1">
         <v>24</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>3.070597894314954</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+      <c r="U6">
         <v>2017</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -860,27 +992,45 @@
         <v>606.0385278682269</v>
       </c>
       <c r="L7" s="3">
-        <v>9.618284102354172</v>
-      </c>
-      <c r="M7" s="1">
+        <v>12.36540145054151</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4.286969110829753</v>
+      </c>
+      <c r="N7" s="3">
+        <v>6.659764042507987</v>
+      </c>
+      <c r="O7" s="3">
+        <v>17.00122115675183</v>
+      </c>
+      <c r="P7" s="1">
         <v>186</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>37.2</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="1">
+        <v>34.17162565638339</v>
+      </c>
+      <c r="S7" s="1">
+        <v>6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>91</v>
+      </c>
+      <c r="U7">
         <v>2017</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
@@ -910,27 +1060,45 @@
         <v>344.6924526172948</v>
       </c>
       <c r="L8" s="3">
-        <v>17.64391592807164</v>
-      </c>
-      <c r="M8" s="1">
+        <v>12.53722570398385</v>
+      </c>
+      <c r="M8" s="3">
+        <v>8.045823649797471</v>
+      </c>
+      <c r="N8" s="3">
+        <v>5.812425748478372</v>
+      </c>
+      <c r="O8" s="3">
+        <v>26.51480404748422</v>
+      </c>
+      <c r="P8" s="1">
         <v>27</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>5.4</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="1">
+        <v>4.722287581247038</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>13</v>
+      </c>
+      <c r="U8">
         <v>2019</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -962,25 +1130,43 @@
       <c r="L9" s="3">
         <v>14.60352775632884</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>14.60352775632884</v>
+      </c>
+      <c r="O9" s="3">
+        <v>14.60352775632884</v>
+      </c>
+      <c r="P9" s="1">
         <v>19</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>19</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>19</v>
+      </c>
+      <c r="T9" s="1">
+        <v>19</v>
+      </c>
+      <c r="U9">
         <v>2019</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>11</v>
@@ -1010,27 +1196,45 @@
         <v>49.13605229220246</v>
       </c>
       <c r="L10" s="3">
-        <v>9.293873452855298</v>
-      </c>
-      <c r="M10" s="1">
+        <v>8.227199441684911</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2.262757279842107</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6.627188424929332</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9.827210458440492</v>
+      </c>
+      <c r="P10" s="1">
         <v>6</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="1">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10">
         <v>2020</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>62</v>
@@ -1060,27 +1264,45 @@
         <v>3475.049171548047</v>
       </c>
       <c r="L11" s="3">
-        <v>19.16584740439515</v>
-      </c>
-      <c r="M11" s="1">
+        <v>21.28076442709062</v>
+      </c>
+      <c r="M11" s="3">
+        <v>11.77410476660937</v>
+      </c>
+      <c r="N11" s="3">
+        <v>7.154956142241136</v>
+      </c>
+      <c r="O11" s="3">
+        <v>46.28286622146687</v>
+      </c>
+      <c r="P11" s="1">
         <v>233</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>23.3</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="1">
+        <v>55.29928671430682</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>180</v>
+      </c>
+      <c r="U11">
         <v>2016</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1112,25 +1334,43 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -1160,27 +1400,45 @@
         <v>157.7614196343105</v>
       </c>
       <c r="L13" s="3">
-        <v>19.59115743012696</v>
-      </c>
-      <c r="M13" s="1">
+        <v>18.29291037840947</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10.21827161448867</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5.278244028225378</v>
+      </c>
+      <c r="O13" s="3">
+        <v>30.09899607061261</v>
+      </c>
+      <c r="P13" s="1">
         <v>15</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>3.75</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="1">
+        <v>3.593976442141304</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>9</v>
+      </c>
+      <c r="U13">
         <v>2020</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1212,25 +1470,43 @@
       <c r="L14" s="3">
         <v>28.03540175623518</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>28.03540175623518</v>
+      </c>
+      <c r="O14" s="3">
+        <v>28.03540175623518</v>
+      </c>
+      <c r="P14" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>5</v>
       </c>
-      <c r="O14">
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5</v>
+      </c>
+      <c r="U14">
         <v>2022</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>23</v>
@@ -1260,27 +1536,45 @@
         <v>538.0691152081814</v>
       </c>
       <c r="L15" s="3">
-        <v>17.01098205421863</v>
-      </c>
-      <c r="M15" s="1">
+        <v>20.5725178494398</v>
+      </c>
+      <c r="M15" s="3">
+        <v>10.00730374855421</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5.258713987810351</v>
+      </c>
+      <c r="O15" s="3">
+        <v>31.61626780845166</v>
+      </c>
+      <c r="P15" s="1">
         <v>64</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>10.66666666666667</v>
       </c>
-      <c r="O15">
+      <c r="R15" s="1">
+        <v>16.76504299626657</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>44</v>
+      </c>
+      <c r="U15">
         <v>2017</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>7</v>
@@ -1312,25 +1606,43 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>42</v>
@@ -1360,27 +1672,45 @@
         <v>1809.09852121176</v>
       </c>
       <c r="L17" s="3">
-        <v>17.91184341737363</v>
-      </c>
-      <c r="M17" s="1">
+        <v>19.40705896430403</v>
+      </c>
+      <c r="M17" s="3">
+        <v>11.79277507316597</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.17193013249399</v>
+      </c>
+      <c r="O17" s="3">
+        <v>48.730798980791</v>
+      </c>
+      <c r="P17" s="1">
         <v>236</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>19.66666666666667</v>
       </c>
-      <c r="O17">
+      <c r="R17" s="1">
+        <v>29.61981318869742</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>108</v>
+      </c>
+      <c r="U17">
         <v>2016</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>86</v>
@@ -1410,27 +1740,45 @@
         <v>1594.029696524064</v>
       </c>
       <c r="L18" s="3">
-        <v>24.27094322079124</v>
-      </c>
-      <c r="M18" s="1">
+        <v>21.69773893485144</v>
+      </c>
+      <c r="M18" s="3">
+        <v>15.04159552384579</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.800513873995445</v>
+      </c>
+      <c r="O18" s="3">
+        <v>57.66233027029206</v>
+      </c>
+      <c r="P18" s="1">
         <v>252</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>11.45454545454546</v>
       </c>
-      <c r="O18">
+      <c r="R18" s="1">
+        <v>14.4542868010292</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>55</v>
+      </c>
+      <c r="U18">
         <v>2017</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
@@ -1462,25 +1810,43 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1512,25 +1878,43 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>55</v>
@@ -1560,27 +1944,45 @@
         <v>657.0789958678034</v>
       </c>
       <c r="L21" s="3">
-        <v>19.8720511393036</v>
-      </c>
-      <c r="M21" s="1">
+        <v>23.85787457326677</v>
+      </c>
+      <c r="M21" s="3">
+        <v>14.33520957766232</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.087396962410123</v>
+      </c>
+      <c r="O21" s="3">
+        <v>45.27801686072104</v>
+      </c>
+      <c r="P21" s="1">
         <v>211</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>15.07142857142857</v>
       </c>
-      <c r="O21">
+      <c r="R21" s="1">
+        <v>16.95906513077564</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>57</v>
+      </c>
+      <c r="U21">
         <v>2016</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>14</v>
@@ -1610,27 +2012,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L22" s="3">
-        <v>24.80867940583138</v>
-      </c>
-      <c r="M22" s="1">
+        <v>33.8275881672982</v>
+      </c>
+      <c r="M22" s="3">
+        <v>16.45166688197391</v>
+      </c>
+      <c r="N22" s="3">
+        <v>22.1945029532323</v>
+      </c>
+      <c r="O22" s="3">
+        <v>45.46067338136409</v>
+      </c>
+      <c r="P22" s="1">
         <v>89</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>44.5</v>
       </c>
-      <c r="O22">
+      <c r="R22" s="1">
+        <v>48.79036790187178</v>
+      </c>
+      <c r="S22" s="1">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1">
+        <v>79</v>
+      </c>
+      <c r="U22">
         <v>2018</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -1662,25 +2082,43 @@
       <c r="L23" s="3">
         <v>53.85819572145232</v>
       </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="O23" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23">
         <v>2022</v>
       </c>
-      <c r="P23">
+      <c r="V23">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>229</v>
@@ -1710,27 +2148,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L24" s="3">
-        <v>20.26852418461482</v>
-      </c>
-      <c r="M24" s="1">
+        <v>19.71365725183107</v>
+      </c>
+      <c r="M24" s="3">
+        <v>13.3821502148247</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3.799754022893506</v>
+      </c>
+      <c r="O24" s="3">
+        <v>66.5973394317372</v>
+      </c>
+      <c r="P24" s="1">
         <v>825</v>
       </c>
-      <c r="N24" s="1">
+      <c r="Q24" s="1">
         <v>15.56603773584906</v>
       </c>
-      <c r="O24">
+      <c r="R24" s="1">
+        <v>41.64941103746582</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>208</v>
+      </c>
+      <c r="U24">
         <v>2016</v>
       </c>
-      <c r="P24">
+      <c r="V24">
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1762,25 +2218,43 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
@@ -1812,16 +2286,34 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>0</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/sub-uf.xlsx
+++ b/analises/2023/analise_descritiva/dados/sub-uf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -523,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,14 +557,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -616,13 +636,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -663,34 +698,49 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -705,60 +755,75 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="G3" s="3">
+        <v>1011.042153300025</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1011.042153300025</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1011.042153300025</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1011.042153300025</v>
+      </c>
+      <c r="L3" s="3">
         <v>2.022084306600051</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>2.022084306600051</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>2.022084306600051</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>2.022084306600051</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>2</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
         <v>2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2023</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -773,60 +838,75 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="3">
-        <v>70.01644246718027</v>
+        <v>700.1644246718026</v>
       </c>
       <c r="H4" s="3">
-        <v>70.01644246718027</v>
+        <v>700.1644246718026</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>70.01644246718027</v>
+        <v>700.1644246718026</v>
       </c>
       <c r="K4" s="3">
-        <v>70.01644246718027</v>
+        <v>700.1644246718026</v>
       </c>
       <c r="L4" s="3">
         <v>70.01644246718027</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>70.01644246718027</v>
       </c>
       <c r="N4" s="3">
-        <v>70.01644246718027</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
         <v>70.01644246718027</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="T4" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="U4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2017</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>25</v>
@@ -841,60 +921,75 @@
         <v>0.16</v>
       </c>
       <c r="G5" s="3">
+        <v>4175.841472883513</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1043.960368220878</v>
+      </c>
+      <c r="I5" s="3">
+        <v>744.4660009721366</v>
+      </c>
+      <c r="J5" s="3">
+        <v>306.7198109688522</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2010.813533025952</v>
+      </c>
+      <c r="L5" s="3">
         <v>392.1183311220419</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>98.02958278051048</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>24.95110894510085</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>76.67995274221305</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>127.073389822705</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>36.28928912262683</v>
       </c>
-      <c r="M5" s="3">
+      <c r="R5" s="3">
         <v>14.15886907659957</v>
       </c>
-      <c r="N5" s="3">
+      <c r="S5" s="3">
         <v>25.41467796454099</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>55.2973721582137</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>12</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>1.414213562373095</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>5</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2019</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>26</v>
@@ -909,60 +1004,75 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="G6" s="3">
+        <v>9321.200033549558</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1165.150004193695</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1336.976318410794</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.25425465924951</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3157.906372891594</v>
+      </c>
+      <c r="L6" s="3">
         <v>615.9557450983459</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>76.99446813729324</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>87.1972945851718</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>3.157906372891594</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>252.2313949797012</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3">
         <v>26.91271061225485</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="3">
         <v>28.51756731053863</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>3.157906372891594</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>84.0771316599004</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>24</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>3</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <v>3.070597894314954</v>
       </c>
-      <c r="S6" s="1">
+      <c r="X6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>10</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2017</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -977,60 +1087,75 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="3">
+        <v>3756.332776372493</v>
+      </c>
+      <c r="H7" s="3">
+        <v>751.2665552744986</v>
+      </c>
+      <c r="I7" s="3">
+        <v>779.4555875323947</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.05875231943428</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1888.856064843901</v>
+      </c>
+      <c r="L7" s="3">
         <v>1789.000843037876</v>
       </c>
-      <c r="H7" s="3">
-        <v>357.8001686075752</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="M7" s="3">
+        <v>357.8001686075753</v>
+      </c>
+      <c r="N7" s="3">
         <v>222.3909378208546</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>102.007326940511</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>606.0385278682269</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>12.36540145054151</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="3">
         <v>4.286969110829753</v>
       </c>
-      <c r="N7" s="3">
+      <c r="S7" s="3">
         <v>6.659764042507987</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>17.00122115675183</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>186</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>37.2</v>
       </c>
-      <c r="R7" s="1">
-        <v>34.17162565638339</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="W7" s="1">
+        <v>34.1716256563834</v>
+      </c>
+      <c r="X7" s="1">
         <v>6</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <v>91</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>2017</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
@@ -1045,60 +1170,75 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G8" s="3">
+        <v>7721.719195740794</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1544.343839148159</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1642.967297056536</v>
+      </c>
+      <c r="J8" s="3">
+        <v>52.14912665617487</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3770.073700501662</v>
+      </c>
+      <c r="L8" s="3">
         <v>476.3857300579342</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>95.27714601158684</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>141.2368027339907</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>10.53962472038917</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>344.6924526172948</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>12.53722570398385</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>8.045823649797471</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>5.812425748478372</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>26.51480404748422</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <v>27</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="V8" s="1">
         <v>5.4</v>
       </c>
-      <c r="R8" s="1">
+      <c r="W8" s="1">
         <v>4.722287581247038</v>
       </c>
-      <c r="S8" s="1">
+      <c r="X8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <v>13</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>2019</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -1113,60 +1253,75 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G9" s="3">
+        <v>642.2847855792776</v>
+      </c>
+      <c r="H9" s="3">
+        <v>642.2847855792776</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>642.2847855792776</v>
+      </c>
+      <c r="K9" s="3">
+        <v>642.2847855792776</v>
+      </c>
+      <c r="L9" s="3">
         <v>277.4670273702479</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>277.4670273702479</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>277.4670273702479</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>277.4670273702479</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>14.60352775632884</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>14.60352775632884</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>14.60352775632884</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <v>19</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="1">
         <v>19</v>
       </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>19</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <v>19</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>2019</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>11</v>
@@ -1181,60 +1336,75 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="G10" s="3">
+        <v>552.2657020774444</v>
+      </c>
+      <c r="H10" s="3">
+        <v>276.1328510387222</v>
+      </c>
+      <c r="I10" s="3">
+        <v>390.5108229557105</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>552.2657020774444</v>
+      </c>
+      <c r="L10" s="3">
         <v>55.76324071713179</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>27.88162035856589</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>30.05830590108463</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>6.627188424929332</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>49.13605229220246</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3">
         <v>8.227199441684911</v>
       </c>
-      <c r="M10" s="3">
+      <c r="R10" s="3">
         <v>2.262757279842107</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>6.627188424929332</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>9.827210458440492</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <v>6</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="V10" s="1">
         <v>3</v>
       </c>
-      <c r="R10" s="1">
+      <c r="W10" s="1">
         <v>2.82842712474619</v>
       </c>
-      <c r="S10" s="1">
+      <c r="X10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <v>5</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>2020</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>62</v>
@@ -1249,60 +1419,75 @@
         <v>0.1612903225806452</v>
       </c>
       <c r="G11" s="3">
+        <v>5789.29193726837</v>
+      </c>
+      <c r="H11" s="3">
+        <v>578.929193726837</v>
+      </c>
+      <c r="I11" s="3">
+        <v>712.2926242857379</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1997.920182952116</v>
+      </c>
+      <c r="L11" s="3">
         <v>4465.642445224071</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="3">
         <v>446.5642445224071</v>
       </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
         <v>1066.779385589969</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>7.154956142241136</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>3475.049171548047</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3">
         <v>21.28076442709062</v>
       </c>
-      <c r="M11" s="3">
-        <v>11.77410476660937</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="R11" s="3">
+        <v>11.77410476660936</v>
+      </c>
+      <c r="S11" s="3">
         <v>7.154956142241136</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>46.28286622146687</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <v>233</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="V11" s="1">
         <v>23.3</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <v>55.29928671430682</v>
       </c>
-      <c r="S11" s="1">
+      <c r="X11" s="1">
         <v>1</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <v>180</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>2016</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1343,34 +1528,49 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -1385,60 +1585,75 @@
         <v>0.25</v>
       </c>
       <c r="G13" s="3">
+        <v>4806.716598652603</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1201.679149663151</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1013.25121050908</v>
+      </c>
+      <c r="J13" s="3">
+        <v>63.33892833870453</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2103.48559512414</v>
+      </c>
+      <c r="L13" s="3">
         <v>293.8673614519045</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
         <v>73.46684036297611</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>66.13950748825135</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>5.278244028225378</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>157.7614196343105</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="3">
         <v>18.29291037840947</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="3">
         <v>10.21827161448867</v>
       </c>
-      <c r="N13" s="3">
+      <c r="S13" s="3">
         <v>5.278244028225378</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>30.09899607061261</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <v>15</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="V13" s="1">
         <v>3.75</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <v>3.593976442141304</v>
       </c>
-      <c r="S13" s="1">
+      <c r="X13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <v>9</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>2020</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1453,60 +1668,75 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="G14" s="3">
+        <v>210.7924944077833</v>
+      </c>
+      <c r="H14" s="3">
+        <v>210.7924944077833</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>210.7924944077833</v>
+      </c>
+      <c r="K14" s="3">
+        <v>210.7924944077833</v>
+      </c>
+      <c r="L14" s="3">
         <v>140.1770087811759</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>140.1770087811759</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>140.1770087811759</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>140.1770087811759</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3">
         <v>28.03540175623518</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>28.03540175623518</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>28.03540175623518</v>
       </c>
-      <c r="P14" s="1">
+      <c r="U14" s="1">
         <v>5</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="V14" s="1">
         <v>5</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
         <v>5</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <v>5</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>2022</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>23</v>
@@ -1521,60 +1751,75 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="G15" s="3">
+        <v>2243.589058074534</v>
+      </c>
+      <c r="H15" s="3">
+        <v>373.9315096790889</v>
+      </c>
+      <c r="I15" s="3">
+        <v>342.4455908885653</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>706.1274477797656</v>
+      </c>
+      <c r="L15" s="3">
         <v>1088.702851469992</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>181.4504752449987</v>
       </c>
-      <c r="I15" s="3">
-        <v>209.3167068015024</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
+        <v>209.3167068015025</v>
+      </c>
+      <c r="O15" s="3">
         <v>5.258713987810351</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>538.0691152081814</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3">
         <v>20.5725178494398</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>10.00730374855421</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>5.258713987810351</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>31.61626780845166</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <v>64</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="V15" s="1">
         <v>10.66666666666667</v>
       </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <v>16.76504299626657</v>
       </c>
-      <c r="S15" s="1">
+      <c r="X15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <v>44</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>2017</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
         <v>7</v>
@@ -1615,34 +1860,49 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>42</v>
@@ -1657,60 +1917,75 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G17" s="3">
+        <v>15200.54482334288</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1381.867711212989</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1423.469736340739</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3611.18314062814</v>
+      </c>
+      <c r="L17" s="3">
         <v>4227.195046500177</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>352.2662538750148</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>491.7537895482428</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>6.33418978999241</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>1809.09852121176</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>19.40705896430403</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>11.79277507316597</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>4.17193013249399</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>48.730798980791</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <v>236</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="V17" s="1">
         <v>19.66666666666667</v>
       </c>
-      <c r="R17" s="1">
-        <v>29.61981318869742</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="W17" s="1">
+        <v>29.61981318869741</v>
+      </c>
+      <c r="X17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <v>108</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>2016</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
         <v>86</v>
@@ -1725,60 +2000,75 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="G18" s="3">
-        <v>6116.277691639392</v>
+        <v>26646.0626587761</v>
       </c>
       <c r="H18" s="3">
-        <v>278.0126223472451</v>
+        <v>1268.860126608386</v>
       </c>
       <c r="I18" s="3">
-        <v>408.5618694269099</v>
+        <v>1224.995290816289</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3923.898127062306</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6116.277691639393</v>
+      </c>
+      <c r="M18" s="3">
+        <v>278.0126223472452</v>
+      </c>
+      <c r="N18" s="3">
+        <v>408.5618694269098</v>
+      </c>
+      <c r="O18" s="3">
         <v>3.800513873995445</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>1594.029696524064</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>21.69773893485144</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>15.04159552384579</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>3.800513873995445</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>57.66233027029206</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <v>252</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="V18" s="1">
         <v>11.45454545454546</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <v>14.4542868010292</v>
       </c>
-      <c r="S18" s="1">
+      <c r="X18" s="1">
         <v>1</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <v>55</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>2017</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
@@ -1819,34 +2109,49 @@
       <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1887,34 +2192,49 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>55</v>
@@ -1929,60 +2249,75 @@
         <v>0.2545454545454545</v>
       </c>
       <c r="G21" s="3">
+        <v>11564.14940984258</v>
+      </c>
+      <c r="H21" s="3">
+        <v>963.6791174868819</v>
+      </c>
+      <c r="I21" s="3">
+        <v>959.1395719770902</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2829.876053795064</v>
+      </c>
+      <c r="L21" s="3">
         <v>4193.00279039306</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>299.50019931379</v>
       </c>
-      <c r="I21" s="3">
-        <v>239.1662389736192</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
+        <v>239.1662389736193</v>
+      </c>
+      <c r="O21" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>657.0789958678034</v>
       </c>
-      <c r="L21" s="3">
-        <v>23.85787457326677</v>
-      </c>
-      <c r="M21" s="3">
-        <v>14.33520957766232</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
+        <v>23.85787457326678</v>
+      </c>
+      <c r="R21" s="3">
+        <v>14.33520957766231</v>
+      </c>
+      <c r="S21" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>45.27801686072104</v>
       </c>
-      <c r="P21" s="1">
+      <c r="U21" s="1">
         <v>211</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="V21" s="1">
         <v>15.07142857142857</v>
       </c>
-      <c r="R21" s="1">
+      <c r="W21" s="1">
         <v>16.95906513077564</v>
       </c>
-      <c r="S21" s="1">
+      <c r="X21" s="1">
         <v>1</v>
       </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="1">
         <v>57</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>2016</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>14</v>
@@ -1997,60 +2332,75 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="G22" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L22" s="3">
         <v>2207.972467118993</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>1103.986233559496</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>918.3612956676446</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>454.6067338136409</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>33.8275881672982</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>16.45166688197391</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>22.1945029532323</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>45.46067338136409</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <v>89</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="V22" s="1">
         <v>44.5</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <v>48.79036790187178</v>
       </c>
-      <c r="S22" s="1">
+      <c r="X22" s="1">
         <v>10</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <v>79</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>2018</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -2065,60 +2415,75 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="3">
-        <v>53.85819572145232</v>
+        <v>1077.163914429046</v>
       </c>
       <c r="H23" s="3">
-        <v>53.85819572145232</v>
+        <v>1077.163914429046</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>53.85819572145232</v>
+        <v>1077.163914429046</v>
       </c>
       <c r="K23" s="3">
-        <v>53.85819572145232</v>
+        <v>1077.163914429046</v>
       </c>
       <c r="L23" s="3">
         <v>53.85819572145232</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>53.85819572145232</v>
       </c>
       <c r="N23" s="3">
-        <v>53.85819572145232</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>53.85819572145232</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="T23" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="U23" s="1">
         <v>1</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="V23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
         <v>1</v>
       </c>
-      <c r="T23" s="1">
+      <c r="Y23" s="1">
         <v>1</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <v>2022</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>229</v>
@@ -2133,60 +2498,75 @@
         <v>0.2314410480349345</v>
       </c>
       <c r="G24" s="3">
-        <v>16721.53245230723</v>
+        <v>66349.99470675565</v>
       </c>
       <c r="H24" s="3">
+        <v>1543.023132715248</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3505.629068832114</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>21176.91783511972</v>
+      </c>
+      <c r="L24" s="3">
+        <v>16721.53245230722</v>
+      </c>
+      <c r="M24" s="3">
         <v>315.5006123076835</v>
       </c>
-      <c r="I24" s="3">
-        <v>902.6930020949623</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
+        <v>902.6930020949625</v>
+      </c>
+      <c r="O24" s="3">
         <v>3.799754022893506</v>
       </c>
-      <c r="K24" s="3">
+      <c r="P24" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L24" s="3">
+      <c r="Q24" s="3">
         <v>19.71365725183107</v>
       </c>
-      <c r="M24" s="3">
+      <c r="R24" s="3">
         <v>13.3821502148247</v>
       </c>
-      <c r="N24" s="3">
+      <c r="S24" s="3">
         <v>3.799754022893506</v>
       </c>
-      <c r="O24" s="3">
+      <c r="T24" s="3">
         <v>66.5973394317372</v>
       </c>
-      <c r="P24" s="1">
+      <c r="U24" s="1">
         <v>825</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="V24" s="1">
         <v>15.56603773584906</v>
       </c>
-      <c r="R24" s="1">
+      <c r="W24" s="1">
         <v>41.64941103746582</v>
       </c>
-      <c r="S24" s="1">
+      <c r="X24" s="1">
         <v>1</v>
       </c>
-      <c r="T24" s="1">
+      <c r="Y24" s="1">
         <v>208</v>
       </c>
-      <c r="U24">
+      <c r="Z24">
         <v>2016</v>
       </c>
-      <c r="V24">
+      <c r="AA24">
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2227,34 +2607,49 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
@@ -2295,25 +2690,40 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>0</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/sub-uf.xlsx
+++ b/analises/2023/analise_descritiva/dados/sub-uf.xlsx
@@ -1920,10 +1920,10 @@
         <v>15200.54482334288</v>
       </c>
       <c r="H17" s="3">
-        <v>1381.867711212989</v>
+        <v>1266.712068611907</v>
       </c>
       <c r="I17" s="3">
-        <v>1423.469736340739</v>
+        <v>1414.634209378984</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>26646.0626587761</v>
       </c>
       <c r="H18" s="3">
-        <v>1268.860126608386</v>
+        <v>1211.184666308004</v>
       </c>
       <c r="I18" s="3">
-        <v>1224.995290816289</v>
+        <v>1225.698890613596</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>11564.14940984258</v>
       </c>
       <c r="H21" s="3">
-        <v>963.6791174868819</v>
+        <v>826.0106721316131</v>
       </c>
       <c r="I21" s="3">
-        <v>959.1395719770902</v>
+        <v>949.1475679611532</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>3429.901669220172</v>
       </c>
       <c r="H22" s="3">
-        <v>3429.901669220172</v>
+        <v>1714.950834610086</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>2425.306729108642</v>
       </c>
       <c r="J22" s="3">
-        <v>3429.901669220172</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>3429.901669220172</v>
@@ -2501,10 +2501,10 @@
         <v>66349.99470675565</v>
       </c>
       <c r="H24" s="3">
-        <v>1543.023132715248</v>
+        <v>1251.886692580295</v>
       </c>
       <c r="I24" s="3">
-        <v>3505.629068832114</v>
+        <v>3208.981321493234</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
